--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints7.000000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints7.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.28239059146604e-06</v>
+        <v>1.259327097578196e-06</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>1.280114326295534e-06</v>
+        <v>1.292170725009597e-06</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>1.290863612525561e-06</v>
+        <v>1.329892021494143e-06</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>1.31368041671262e-06</v>
+        <v>1.372239826097275e-06</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>1.347606705413247e-06</v>
+        <v>1.418962977884583e-06</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>1.391684445183968e-06</v>
+        <v>1.469810315921609e-06</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>1.44495560258139e-06</v>
+        <v>1.524530679273969e-06</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>1.506462144161901e-06</v>
+        <v>1.582872907007062e-06</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>1.575246036482093e-06</v>
+        <v>1.644585838186498e-06</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>1.650349246098597e-06</v>
+        <v>1.709418311877907e-06</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>1.730813739567744e-06</v>
+        <v>1.777119167146662e-06</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>1.815681483446159e-06</v>
+        <v>1.847437243058387e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>1.903994444290486e-06</v>
+        <v>1.92012137867872e-06</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.994794588657023e-06</v>
+        <v>1.994920413073014e-06</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>2.087123883102411e-06</v>
+        <v>2.071583185306903e-06</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>2.180024294183181e-06</v>
+        <v>2.149858534445932e-06</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>2.272537788455982e-06</v>
+        <v>2.229495299555745e-06</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>2.363706332477099e-06</v>
+        <v>2.310242319701678e-06</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>2.452597688408987e-06</v>
+        <v>2.391847971727266e-06</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>2.538798361323736e-06</v>
+        <v>2.474051337309896e-06</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>2.622375277335666e-06</v>
+        <v>2.556582889636122e-06</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>2.703413479637869e-06</v>
+        <v>2.639172777259462e-06</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>2.781998011423321e-06</v>
+        <v>2.721551148733324e-06</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>2.858213915885099e-06</v>
+        <v>2.803448152611225e-06</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>2.932146236215975e-06</v>
+        <v>2.884593937446357e-06</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>3.003880015609032e-06</v>
+        <v>2.964718651792241e-06</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>3.073500297257333e-06</v>
+        <v>3.043552444202385e-06</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>3.141092124353673e-06</v>
+        <v>3.120825463229993e-06</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>3.20674054009112e-06</v>
+        <v>3.196267857428578e-06</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>3.270530587662652e-06</v>
+        <v>3.26960977535155e-06</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>3.332547310261325e-06</v>
+        <v>3.340581365552408e-06</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>3.392875751079951e-06</v>
+        <v>3.408912776584376e-06</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>3.451600953311592e-06</v>
+        <v>3.474334157000956e-06</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>3.508807960149296e-06</v>
+        <v>3.536575655355641e-06</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>3.564541841979865e-06</v>
+        <v>3.595382397662716e-06</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>3.61858014161503e-06</v>
+        <v>3.650599750180921e-06</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>3.670590602798513e-06</v>
+        <v>3.702114219920077e-06</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>3.72024063450397e-06</v>
+        <v>3.74981243932515e-06</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>3.767197645705264e-06</v>
+        <v>3.793581040841309e-06</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>3.811129045376184e-06</v>
+        <v>3.833306656913655e-06</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>3.851702242490575e-06</v>
+        <v>3.868875919987331e-06</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>3.888584646022121e-06</v>
+        <v>3.900175462507345e-06</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>3.921443664944667e-06</v>
+        <v>3.927091916918845e-06</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>3.949946708232044e-06</v>
+        <v>3.94951191566696e-06</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>3.973761184857964e-06</v>
+        <v>3.967322091196728e-06</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>3.99255450379626e-06</v>
+        <v>3.980409075953284e-06</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>4.005994074020726e-06</v>
+        <v>3.988659502381728e-06</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>4.013747304505158e-06</v>
+        <v>3.991960002927159e-06</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>4.015481604223326e-06</v>
+        <v>3.990197210034671e-06</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>4.010913154178608e-06</v>
+        <v>3.983292883770735e-06</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>4.000385147715611e-06</v>
+        <v>3.971620384274834e-06</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>3.984675765013884e-06</v>
+        <v>3.955866367093104e-06</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>3.96457193625469e-06</v>
+        <v>3.936723789882734e-06</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>3.940860591619273e-06</v>
+        <v>3.914885610300897e-06</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>3.914328661288973e-06</v>
+        <v>3.891044786004852e-06</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>3.885763075445035e-06</v>
+        <v>3.865894274651774e-06</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>3.855950764268736e-06</v>
+        <v>3.840127033898866e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>3.825678657941313e-06</v>
+        <v>3.814436021403296e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>3.795733686644122e-06</v>
+        <v>3.789514194822335e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>3.766902780558399e-06</v>
+        <v>3.76605451181315e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>3.739972869865387e-06</v>
+        <v>3.744749930032917e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>3.715708255848711e-06</v>
+        <v>3.726271348402927e-06</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>3.694316715584967e-06</v>
+        <v>3.710747163920948e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>3.675428699645896e-06</v>
+        <v>3.697742993501784e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>3.658647867489431e-06</v>
+        <v>3.686798337980137e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>3.643577878573562e-06</v>
+        <v>3.677452698190744e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>3.62982239235622e-06</v>
+        <v>3.669245574968302e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>3.616985068295337e-06</v>
+        <v>3.661716469147513e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>3.604669565848896e-06</v>
+        <v>3.654404881563107e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>3.592479544474834e-06</v>
+        <v>3.646850313049785e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>3.580018663631082e-06</v>
+        <v>3.63859226444225e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>3.566890582775623e-06</v>
+        <v>3.629170236575233e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>3.552698961366393e-06</v>
+        <v>3.618123730283434e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>3.537047458861342e-06</v>
+        <v>3.604992246401567e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>3.519539734718393e-06</v>
+        <v>3.589315285764318e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>3.499779448395549e-06</v>
+        <v>3.570632349206443e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>3.477370259350732e-06</v>
+        <v>3.548482937562632e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>3.451915827041863e-06</v>
+        <v>3.522406551667561e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>3.423019810926954e-06</v>
+        <v>3.491942692356009e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>3.390285870463927e-06</v>
+        <v>3.456630860462656e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>3.353317665110733e-06</v>
+        <v>3.416010556822215e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>3.311718854325264e-06</v>
+        <v>3.369621282269331e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>3.265093097565578e-06</v>
+        <v>3.317002537638836e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>3.213044054289576e-06</v>
+        <v>3.257693823765388e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>3.155175383955129e-06</v>
+        <v>3.191234641483604e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>3.091090746020337e-06</v>
+        <v>3.117164491628369e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>3.020393799943081e-06</v>
+        <v>3.035022875034315e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>2.943029679020265e-06</v>
+        <v>2.944822512162098e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>2.860718546308676e-06</v>
+        <v>2.849035986639637e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>2.775755513744695e-06</v>
+        <v>2.750932654973693e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>2.690435988242317e-06</v>
+        <v>2.653782282455556e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>2.607055376715537e-06</v>
+        <v>2.56085463437652e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>2.527909086078676e-06</v>
+        <v>2.475419476028244e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>2.455292523245725e-06</v>
+        <v>2.400746572702015e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>2.391501095130707e-06</v>
+        <v>2.340105689689176e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>2.338830208647894e-06</v>
+        <v>2.296766592281301e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>2.299575270711299e-06</v>
+        <v>2.273999045769714e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>2.27603168823502e-06</v>
+        <v>2.275072815445825e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>2.270494868133165e-06</v>
+        <v>2.303257666601104e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>2.285260217319853e-06</v>
+        <v>2.361823364526892e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>1.380919832792947e-06</v>
+        <v>1.389290088327837e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.792350046400317e-06</v>
+        <v>1.808679761342575e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>1.716816568959198e-06</v>
+        <v>1.758817397540949e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>2.370750999852711e-06</v>
+        <v>2.388371938641185e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>2.992363208814052e-06</v>
+        <v>2.97875213705898e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>3.064761510181549e-06</v>
+        <v>3.052739078431536e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>5.058478312470604e-06</v>
+        <v>5.077524234898936e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>1.343983039657586e-05</v>
+        <v>1.34873437284754e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>2.720998839041909e-05</v>
+        <v>2.728306295068807e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>3.400661062053189e-05</v>
+        <v>3.413392033553397e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>3.610789772215903e-05</v>
+        <v>3.618495101101183e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>3.640829932921395e-05</v>
+        <v>3.634511673080345e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>3.533074587728552e-05</v>
+        <v>3.523847385365909e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>3.368292624296247e-05</v>
+        <v>3.367170995930141e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>3.243726546465836e-05</v>
+        <v>3.249487843627389e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>3.170067883652018e-05</v>
+        <v>3.172151010702603e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>3.145895815504627e-05</v>
+        <v>3.136566105222747e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>3.216847746810277e-05</v>
+        <v>3.21973079632305e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>3.158305716288686e-05</v>
+        <v>3.166295692590813e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>3.090612652132311e-05</v>
+        <v>3.086428120251464e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>3.139645255037534e-05</v>
+        <v>3.131846325073972e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>3.135951464459155e-05</v>
+        <v>3.129830233011121e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>3.094373577486446e-05</v>
+        <v>3.091478656096437e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>3.053141829868338e-05</v>
+        <v>3.052563889239717e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>3.007091443297782e-05</v>
+        <v>3.007820166160024e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>2.946356542753828e-05</v>
+        <v>2.947535958803892e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>2.861258372944129e-05</v>
+        <v>2.862195726047743e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>2.744027406994727e-05</v>
+        <v>2.744283629412826e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>2.588010294089233e-05</v>
+        <v>2.587452899659503e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>2.386862453331142e-05</v>
+        <v>2.385666847391373e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>2.145695857291647e-05</v>
+        <v>2.144370397866126e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.884504265221472e-05</v>
+        <v>1.88392281689776e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>1.624275942675076e-05</v>
+        <v>1.625680052084439e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>1.38347506486309e-05</v>
+        <v>1.388222573486396e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>1.163919729458914e-05</v>
+        <v>1.171826904788624e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>9.607154980258964e-06</v>
+        <v>9.693943003214525e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>7.733574027341536e-06</v>
+        <v>7.795362333451253e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>6.10438647590849e-06</v>
+        <v>6.12691963134887e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>4.812743097108909e-06</v>
+        <v>4.802953157444385e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>3.872209284677955e-06</v>
+        <v>3.845438704390958e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>3.223360936786693e-06</v>
+        <v>3.191644419305332e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>2.804072565720877e-06</v>
+        <v>2.775703367519305e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>2.552218683766761e-06</v>
+        <v>2.531748614365167e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>2.405673803210011e-06</v>
+        <v>2.393913225174626e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>2.304720948204294e-06</v>
+        <v>2.298913937562886e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>2.222730475071734e-06</v>
+        <v>2.218961116639754e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>2.157113720888296e-06</v>
+        <v>2.152054502467862e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>2.105823209020682e-06</v>
+        <v>2.0967743794859e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>2.066811462835617e-06</v>
+        <v>2.051701032132573e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>2.038031005699876e-06</v>
+        <v>2.015414744846648e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>2.017434360980182e-06</v>
+        <v>1.986495802066828e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>2.002974052043276e-06</v>
+        <v>1.963524488231839e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>1.992602602255895e-06</v>
+        <v>1.945081087780398e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>1.984541859240004e-06</v>
+        <v>1.929924549097788e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>1.978347903103925e-06</v>
+        <v>1.917698921844021e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>1.97398922649336e-06</v>
+        <v>1.908321841329511e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>1.971434442790348e-06</v>
+        <v>1.901711022958581e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>1.970652165376927e-06</v>
+        <v>1.897784182135545e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>1.971611007635132e-06</v>
+        <v>1.896459034264719e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>1.974279582947003e-06</v>
+        <v>1.89765329475042e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>1.978626504694576e-06</v>
+        <v>1.901284678996963e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.984620386259887e-06</v>
+        <v>1.907270902408665e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.99222984102498e-06</v>
+        <v>1.915529680389848e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>2.001423482371883e-06</v>
+        <v>1.925978728344818e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>2.012169923682638e-06</v>
+        <v>1.938535761677899e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>2.024437778339283e-06</v>
+        <v>1.953118495793403e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>2.038195659723861e-06</v>
+        <v>1.969644646095657e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>2.053412181218396e-06</v>
+        <v>1.988031927988962e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>2.070055956204934e-06</v>
+        <v>2.008198056877642e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>2.088095598065518e-06</v>
+        <v>2.030060748166022e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>2.107499720182173e-06</v>
+        <v>2.053537717258402e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>2.12823693593694e-06</v>
+        <v>2.078546679559105e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>2.150275858711859e-06</v>
+        <v>2.105005350472448e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>2.173585101888977e-06</v>
+        <v>2.132831445402761e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>2.198133278850312e-06</v>
+        <v>2.161942679754335e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>2.223889002977911e-06</v>
+        <v>2.192256768931501e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>2.250820887653824e-06</v>
+        <v>2.223691428338586e-06</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>2.278897546260062e-06</v>
+        <v>2.256164373379881e-06</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>2.308087592178678e-06</v>
+        <v>2.289593319459715e-06</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>2.338359638791706e-06</v>
+        <v>2.323895981982405e-06</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>2.369682299481201e-06</v>
+        <v>2.358990076352284e-06</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>2.40202418762917e-06</v>
+        <v>2.394793317973635e-06</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>2.435353916617665e-06</v>
+        <v>2.431223422250793e-06</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>2.469640099828723e-06</v>
+        <v>2.468198104588072e-06</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>2.504851350644398e-06</v>
+        <v>2.505635080389807e-06</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>2.540956282446696e-06</v>
+        <v>2.54345206506028e-06</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>2.57792350861767e-06</v>
+        <v>2.581566774003825e-06</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>2.615721660376286e-06</v>
+        <v>2.619896946691594e-06</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>2.654383100883642e-06</v>
+        <v>2.658446314228835e-06</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>2.694147069422339e-06</v>
+        <v>2.69749773958377e-06</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>2.735294707862743e-06</v>
+        <v>2.737390623653216e-06</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>2.77810715807516e-06</v>
+        <v>2.77846436733394e-06</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>2.822865561929955e-06</v>
+        <v>2.821058371522757e-06</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>2.869851061297472e-06</v>
+        <v>2.86551203711647e-06</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>2.91934479804808e-06</v>
+        <v>2.9121647650119e-06</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>2.971627914052079e-06</v>
+        <v>2.961355956105805e-06</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>3.026981551179838e-06</v>
+        <v>3.013425011295006e-06</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>3.0856868513017e-06</v>
+        <v>3.068711331476305e-06</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>3.14802495628804e-06</v>
+        <v>3.127554317546527e-06</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>3.214277008009147e-06</v>
+        <v>3.190293370402421e-06</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>3.284724148335393e-06</v>
+        <v>3.257267890940812e-06</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>3.35964751913716e-06</v>
+        <v>3.328817280058536e-06</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>3.439328262284723e-06</v>
+        <v>3.405280938652327e-06</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>3.524047519648462e-06</v>
+        <v>3.486998267619016e-06</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>3.614086433098722e-06</v>
+        <v>3.574308667855405e-06</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>3.709726144505891e-06</v>
+        <v>3.667551540258337e-06</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>3.81124779574023e-06</v>
+        <v>3.767066285724529e-06</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>3.918932528672127e-06</v>
+        <v>3.873192305150821e-06</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>4.033061485171977e-06</v>
+        <v>3.986268999434066e-06</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>4.153915807110024e-06</v>
+        <v>4.106635769470964e-06</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>4.281776636356664e-06</v>
+        <v>4.234632016158364e-06</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>4.41692511478224e-06</v>
+        <v>4.370597140393063e-06</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>4.559642384257167e-06</v>
+        <v>4.514870543071935e-06</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>4.710209586651657e-06</v>
+        <v>4.667791625091646e-06</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>4.869151073896342e-06</v>
+        <v>4.829922253504743e-06</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>5.038290637413684e-06</v>
+        <v>5.003012902891084e-06</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>5.219884270350904e-06</v>
+        <v>5.189209386148738e-06</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>5.416188256918343e-06</v>
+        <v>5.39065778241353e-06</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>5.62945888132626e-06</v>
+        <v>5.609504170821198e-06</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>5.861952427785027e-06</v>
+        <v>5.847894630507594e-06</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>6.1159251805047e-06</v>
+        <v>6.107975240608253e-06</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>6.393633423695638e-06</v>
+        <v>6.391892080259013e-06</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>6.69733344156825e-06</v>
+        <v>6.701791228595768e-06</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>7.029281518332521e-06</v>
+        <v>7.039818764753976e-06</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>7.39173393819885e-06</v>
+        <v>7.408120767869519e-06</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>7.786946985377494e-06</v>
+        <v>7.808843317078135e-06</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>8.217176944078922e-06</v>
+        <v>8.244132491515773e-06</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>8.684680098513003e-06</v>
+        <v>8.716134370317779e-06</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>9.191712732890192e-06</v>
+        <v>9.22699503262009e-06</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>9.740531131421006e-06</v>
+        <v>9.778860557558705e-06</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>1.033339157831521e-05</v>
+        <v>1.037387702426887e-05</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>1.09741076118615e-05</v>
+        <v>1.10157646559567e-05</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>1.16830348558455e-05</v>
+        <v>1.17249651769356e-05</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>1.249050393976803e-05</v>
+        <v>1.253200350623723e-05</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>1.342698304674009e-05</v>
+        <v>1.346754360841115e-05</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>1.452294035987376e-05</v>
+        <v>1.456224944800799e-05</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>1.580884406228078e-05</v>
+        <v>1.584678498957805e-05</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>1.731516233707362e-05</v>
+        <v>1.735181419767236e-05</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>1.907236336736263e-05</v>
+        <v>1.910800103683984e-05</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>2.111091533626021e-05</v>
+        <v>2.114600947163143e-05</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>2.346128642687921e-05</v>
+        <v>2.349650346659855e-05</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>2.615394482232926e-05</v>
+        <v>2.619014698628939e-05</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>2.921935870572307e-05</v>
+        <v>2.925760399525522e-05</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>3.268799626017404e-05</v>
+        <v>3.272953845804799e-05</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>3.65829881144425e-05</v>
+        <v>3.66292505695088e-05</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>4.083758249611694e-05</v>
+        <v>4.088983699460451e-05</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>4.532478574029662e-05</v>
+        <v>4.538393727568414e-05</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>4.99164938851262e-05</v>
+        <v>4.998307669131201e-05</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>5.448460296874404e-05</v>
+        <v>5.455878052004602e-05</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>5.890100902929474e-05</v>
+        <v>5.898257404045045e-05</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>6.30376081049209e-05</v>
+        <v>6.312598253108742e-05</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>6.676629623376657e-05</v>
+        <v>6.686053127052065e-05</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>6.995896945397097e-05</v>
+        <v>7.005774553730894e-05</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>7.248752380367841e-05</v>
+        <v>7.258915061001622e-05</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>7.422385532103202e-05</v>
+        <v>7.432627176720521e-05</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>7.503986004417276e-05</v>
+        <v>7.514063428743647e-05</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>7.480743401124414e-05</v>
+        <v>7.490376344927314e-05</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>7.341037615138423e-05</v>
+        <v>7.349913600574563e-05</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>7.090182258482419e-05</v>
+        <v>7.098025707665993e-05</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>6.746092311082118e-05</v>
+        <v>6.752715980498021e-05</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>6.326982784193826e-05</v>
+        <v>6.332288989321493e-05</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>5.851068689073713e-05</v>
+        <v>5.855049304387112e-05</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>5.336565036978617e-05</v>
+        <v>5.339301495946254e-05</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>4.801686839164729e-05</v>
+        <v>4.803350134249642e-05</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>4.264649106888444e-05</v>
+        <v>4.265499789548212e-05</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>3.743666851405933e-05</v>
+        <v>3.744055032092665e-05</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>3.256955083974068e-05</v>
+        <v>3.257320432134411e-05</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>2.822728815849007e-05</v>
+        <v>2.823600559924143e-05</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>2.459203058287001e-05</v>
+        <v>2.46119998571265e-05</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>2.184592822544781e-05</v>
+        <v>2.188423279751197e-05</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>2.017113119878565e-05</v>
+        <v>2.023575012290536e-05</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>1.969330308100039e-05</v>
+        <v>1.979217521541539e-05</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>1.974767305014054e-05</v>
+        <v>1.98756023006772e-05</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>1.908784225793503e-05</v>
+        <v>1.921686201897397e-05</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>1.645601833839827e-05</v>
+        <v>1.65352192834484e-05</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>1.171933646406575e-05</v>
+        <v>1.170238058119254e-05</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>7.697582968664447e-06</v>
+        <v>7.614812443672397e-06</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>6.02661712363321e-06</v>
+        <v>5.94860125050384e-06</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>5.617948133148737e-06</v>
+        <v>5.576626388933134e-06</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>5.291818572137609e-06</v>
+        <v>5.278902259184013e-06</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>4.785112976583924e-06</v>
+        <v>4.784611046853838e-06</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>4.161391980922096e-06</v>
+        <v>4.161202704098382e-06</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>3.484616826709889e-06</v>
+        <v>3.476542005209237e-06</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>2.817894924636192e-06</v>
+        <v>2.797592848207246e-06</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>2.207497221225545e-06</v>
+        <v>2.173554991163436e-06</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>1.684281615278243e-06</v>
+        <v>1.637365897752865e-06</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>1.278537554521703e-06</v>
+        <v>1.221363259375697e-06</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>1.020554486683874e-06</v>
+        <v>9.578847674326349e-07</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>9.406218594921159e-07</v>
+        <v>8.792681133237809e-07</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>1.069029120673999e-06</v>
+        <v>1.017850988449451e-06</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>1.436065717957317e-06</v>
+        <v>1.4059710842102e-06</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>2.072021099069322e-06</v>
+        <v>2.075966092006006e-06</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>3.057308677459144e-06</v>
+        <v>3.107931588320639e-06</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>5.054358793204217e-06</v>
+        <v>5.136506212988882e-06</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>8.760886648211093e-06</v>
+        <v>8.825755723917342e-06</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>1.319436783867309e-05</v>
+        <v>1.321802058598618e-05</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>1.687674766900853e-05</v>
+        <v>1.687763179146783e-05</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>1.931877972014985e-05</v>
+        <v>1.933223019596821e-05</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>2.129111374480648e-05</v>
+        <v>2.133686206079914e-05</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>2.364615102110945e-05</v>
+        <v>2.37262169277863e-05</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>2.723621527958216e-05</v>
+        <v>2.733490792970762e-05</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>3.250420912617719e-05</v>
+        <v>3.259413822666357e-05</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>3.852791341935598e-05</v>
+        <v>3.859003205193119e-05</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>4.410093778857573e-05</v>
+        <v>4.412871463324411e-05</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>4.801689186329492e-05</v>
+        <v>4.80163111983372e-05</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>4.920165343764229e-05</v>
+        <v>4.919041058098305e-05</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>4.835985152410767e-05</v>
+        <v>4.835653307444499e-05</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>4.746965196310983e-05</v>
+        <v>4.74859891508908e-05</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>4.853689667168745e-05</v>
+        <v>4.857759701152114e-05</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>5.304231883998047e-05</v>
+        <v>5.310684432824313e-05</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>6.021218792266418e-05</v>
+        <v>6.030238942217068e-05</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>6.866786778523073e-05</v>
+        <v>6.879003344228594e-05</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>7.703071489606605e-05</v>
+        <v>7.719557016551411e-05</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>8.392208919856115e-05</v>
+        <v>8.414479681523218e-05</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>8.834085048588761e-05</v>
+        <v>8.863790864915994e-05</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>9.070198452801182e-05</v>
+        <v>9.10795909728986e-05</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>9.175248214986082e-05</v>
+        <v>9.220380615015002e-05</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>9.223933417635903e-05</v>
+        <v>9.274451654461339e-05</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>9.288547872450129e-05</v>
+        <v>9.34123425032808e-05</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>9.403623814660821e-05</v>
+        <v>9.455144611348727e-05</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>9.573690953008882e-05</v>
+        <v>9.621482911726962e-05</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>9.802451316788199e-05</v>
+        <v>9.844746101865762e-05</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>0.0001009360693529233</v>
+        <v>0.0001012943113216779</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>0.0001045085983781514</v>
+        <v>0.0001048003495303598</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>0.000108779120536504</v>
+        <v>0.0001090105451487322</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>0.0001137846561209212</v>
+        <v>0.000113969867680826</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>0.0001195615863781814</v>
+        <v>0.0001197226163970896</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>0.0001260630536286707</v>
+        <v>0.0001262257893255442</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>0.0001330772549106553</v>
+        <v>0.0001332633893741917</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>0.0001403729697480924</v>
+        <v>0.0001405990543022099</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>0.0001477189776649485</v>
+        <v>0.0001479964218687852</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>0.0001548840581851873</v>
+        <v>0.0001552191298331018</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>0.0001616369908327753</v>
+        <v>0.0001620308159543464</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>0.0001677465551316698</v>
+        <v>0.0001681951179916965</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>0.0001729815306058375</v>
+        <v>0.0001734756737043391</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>0.0001771110138624386</v>
+        <v>0.000177636447996199</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>0.0001799696693896486</v>
+        <v>0.0001805090542233279</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>0.0001815376483553982</v>
+        <v>0.0001820752089407542</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>0.0001818146632353116</v>
+        <v>0.0001823368107219972</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>0.0001808004265050125</v>
+        <v>0.0001812957581405756</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>0.000178494650640126</v>
+        <v>0.0001789539497700094</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>0.0001748970481162764</v>
+        <v>0.0001753132841838179</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>0.0001700073314090855</v>
+        <v>0.0001703756599555177</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>0.0001638252129941821</v>
+        <v>0.0001641429756586329</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>0.0001563607223800033</v>
+        <v>0.0001566273965954905</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>0.0001477808017317152</v>
+        <v>0.0001479972356471262</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>0.000138374496913329</v>
+        <v>0.0001385423140376461</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>0.0001284340714491532</v>
+        <v>0.0001285556549627185</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>0.0001182517888634839</v>
+        <v>0.0001183302816179991</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>0.0001081199126806166</v>
+        <v>0.0001081592171991433</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>9.83307064248606e-05</v>
+        <v>9.833548490181991e-05</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>8.917643362051153e-05</v>
+        <v>8.915210792168421e-05</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>8.094935779186933e-05</v>
+        <v>8.09021094543959e-05</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>7.386905000409088e-05</v>
+        <v>7.380562293088372e-05</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>6.785529293689911e-05</v>
+        <v>6.778217969568506e-05</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>6.275059804447654e-05</v>
+        <v>6.267383013428738e-05</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>5.839747670190606e-05</v>
+        <v>5.832262455286379e-05</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>5.463844028426905e-05</v>
+        <v>5.457061325758591e-05</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>5.131600016665177e-05</v>
+        <v>5.12598465546302e-05</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>4.827266772413536e-05</v>
+        <v>4.823237475016807e-05</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>4.535095433180145e-05</v>
+        <v>4.533024815037134e-05</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>4.239392741345856e-05</v>
+        <v>4.239607112116163e-05</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>3.934894260882251e-05</v>
+        <v>3.937636320713793e-05</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>3.638969032107842e-05</v>
+        <v>3.644316912064885e-05</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>3.371952555247457e-05</v>
+        <v>3.379809206332408e-05</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>3.154180330525505e-05</v>
+        <v>3.16427352367892e-05</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>3.005987858166534e-05</v>
+        <v>3.017870184267113e-05</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>2.947710638395089e-05</v>
+        <v>2.960759508259676e-05</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>2.999684171435781e-05</v>
+        <v>3.013101815819366e-05</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>3.182243957513108e-05</v>
+        <v>3.195057427108825e-05</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>3.515324766807561e-05</v>
+        <v>3.526389018468521e-05</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>3.996413046351639e-05</v>
+        <v>4.004583828817867e-05</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>4.589087993500978e-05</v>
+        <v>4.593482984031776e-05</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>5.254113387506054e-05</v>
+        <v>5.254133874818294e-05</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>5.952253007617472e-05</v>
+        <v>5.947583891885602e-05</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>6.644270633084878e-05</v>
+        <v>6.63488042594092e-05</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>7.290930043158869e-05</v>
+        <v>7.277070867692423e-05</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>7.85299501708996e-05</v>
+        <v>7.835202607848198e-05</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>8.291229334127924e-05</v>
+        <v>8.270323037115593e-05</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>8.573814768245514e-05</v>
+        <v>8.550845218399985e-05</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>8.707755902182068e-05</v>
+        <v>8.683731188266066e-05</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>8.712715334318579e-05</v>
+        <v>8.688511716120186e-05</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>8.608362629163964e-05</v>
+        <v>8.584724488361307e-05</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>8.414367351227172e-05</v>
+        <v>8.391907191388421e-05</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>8.150399065017114e-05</v>
+        <v>8.129597511600495e-05</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>7.836127335042555e-05</v>
+        <v>7.817333135396338e-05</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>7.491221725812699e-05</v>
+        <v>7.474651749175204e-05</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>7.135351527644375e-05</v>
+        <v>7.121090766894808e-05</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>6.784510932510588e-05</v>
+        <v>6.772535971324677e-05</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>6.44180584080411e-05</v>
+        <v>6.432067151191788e-05</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>6.10751845684187e-05</v>
+        <v>6.099958429716545e-05</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>5.78193098494096e-05</v>
+        <v>5.776483930119513e-05</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>5.465325629418329e-05</v>
+        <v>5.461917775621117e-05</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>5.157984594591351e-05</v>
+        <v>5.156534089442205e-05</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>4.860190084776973e-05</v>
+        <v>4.860606994803197e-05</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>4.572224304292282e-05</v>
+        <v>4.574410614924659e-05</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>4.294369457454248e-05</v>
+        <v>4.298219073027032e-05</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>4.026907748580209e-05</v>
+        <v>4.032306492331132e-05</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>3.770121381987128e-05</v>
+        <v>3.776946996057391e-05</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>3.524292561991986e-05</v>
+        <v>3.532414707426272e-05</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>3.289703492912096e-05</v>
+        <v>3.298983749658556e-05</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>3.066636379064432e-05</v>
+        <v>3.076928245974697e-05</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>2.855373424765995e-05</v>
+        <v>2.866522319595167e-05</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>2.656196834334062e-05</v>
+        <v>2.668040093740721e-05</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>2.469388812085625e-05</v>
+        <v>2.481755691631823e-05</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>2.295156515259827e-05</v>
+        <v>2.307870028498161e-05</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>2.133205768978548e-05</v>
+        <v>2.146094972985983e-05</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>1.983036987928775e-05</v>
+        <v>1.995942017049267e-05</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>1.844149966225578e-05</v>
+        <v>1.856922047277668e-05</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>1.716044497984103e-05</v>
+        <v>1.728545950260916e-05</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>1.598220377319445e-05</v>
+        <v>1.610324612588692e-05</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>1.490177398346854e-05</v>
+        <v>1.50176892085083e-05</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>1.391415355181421e-05</v>
+        <v>1.402389761637005e-05</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>1.301434041938251e-05</v>
+        <v>1.311698021536909e-05</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>1.219733252732572e-05</v>
+        <v>1.229204587140353e-05</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>1.145812781679486e-05</v>
+        <v>1.154420345037024e-05</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>1.07917242289411e-05</v>
+        <v>1.086856181816624e-05</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>1.01931197049165e-05</v>
+        <v>1.026022984068942e-05</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>9.657312185872189e-06</v>
+        <v>9.714316383836783e-06</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>9.179299612959417e-06</v>
+        <v>9.22593031350541e-06</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>8.754079927330247e-06</v>
+        <v>8.790180495593226e-06</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>8.376651070135365e-06</v>
+        <v>8.402175795996745e-06</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>8.042010982526624e-06</v>
+        <v>8.057025080613672e-06</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>7.745157605655722e-06</v>
+        <v>7.74983721534157e-06</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>7.481088880673573e-06</v>
+        <v>7.475721066077178e-06</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>7.244802748732112e-06</v>
+        <v>7.229785498718297e-06</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>7.031297150982363e-06</v>
+        <v>7.007139379161778e-06</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>6.835570028575994e-06</v>
+        <v>6.80289157330515e-06</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>6.652619322664614e-06</v>
+        <v>6.612150947045873e-06</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>6.477442974399345e-06</v>
+        <v>6.430026366280903e-06</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>6.305038924931804e-06</v>
+        <v>6.251626696907711e-06</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>6.130687553320667e-06</v>
+        <v>6.072334039621891e-06</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>5.952962275350028e-06</v>
+        <v>5.89071622976157e-06</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>5.772565659771534e-06</v>
+        <v>5.707400878165031e-06</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>5.590235969053647e-06</v>
+        <v>5.523050126324073e-06</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>5.406711465664333e-06</v>
+        <v>5.338326115729992e-06</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>5.222730412072053e-06</v>
+        <v>5.153890987874584e-06</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>5.039031070745269e-06</v>
+        <v>4.970406884249643e-06</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>4.856351704151947e-06</v>
+        <v>4.78853594634647e-06</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>4.675430574760548e-06</v>
+        <v>4.608940315656863e-06</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>4.497005945039529e-06</v>
+        <v>4.432282133672606e-06</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>4.321816077456863e-06</v>
+        <v>4.259223541885013e-06</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>4.150599234481164e-06</v>
+        <v>4.090426681786023e-06</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>3.984093678580416e-06</v>
+        <v>3.926553694866963e-06</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>3.823037672223075e-06</v>
+        <v>3.768266722619618e-06</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>3.668169477877571e-06</v>
+        <v>3.616227906535753e-06</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>3.520227358011923e-06</v>
+        <v>3.47109938810672e-06</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>3.379949575094572e-06</v>
+        <v>3.333543308824294e-06</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>3.248059050996924e-06</v>
+        <v>3.204207783765047e-06</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>3.124835470715053e-06</v>
+        <v>3.083335661872116e-06</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>3.010058351463696e-06</v>
+        <v>2.970712472145129e-06</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>2.903480431534056e-06</v>
+        <v>2.866099258728319e-06</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>2.804854449217049e-06</v>
+        <v>2.769257065765635e-06</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>2.713933142803958e-06</v>
+        <v>2.679946937401389e-06</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>2.630469250585731e-06</v>
+        <v>2.597929917779564e-06</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>2.554215510853559e-06</v>
+        <v>2.522967051044381e-06</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>2.484924661898609e-06</v>
+        <v>2.454819381340037e-06</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>2.422349442011867e-06</v>
+        <v>2.39324795281055e-06</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>2.366242589484503e-06</v>
+        <v>2.338013809600121e-06</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>2.316356842607669e-06</v>
+        <v>2.288877995852934e-06</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>2.272444939672383e-06</v>
+        <v>2.245601555713038e-06</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>2.2342596189698e-06</v>
+        <v>2.20794553332462e-06</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>2.201553618791057e-06</v>
+        <v>2.175670972831846e-06</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>2.1740796774272e-06</v>
+        <v>2.148538918378796e-06</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>2.151590533169371e-06</v>
+        <v>2.126310414109641e-06</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>2.133838924308691e-06</v>
+        <v>2.108746504168536e-06</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>2.120577589136237e-06</v>
+        <v>2.095608232699587e-06</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>2.11155926594314e-06</v>
+        <v>2.086656643846957e-06</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>2.106536693020493e-06</v>
+        <v>2.081652781754771e-06</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>2.105262608659412e-06</v>
+        <v>2.080357690567176e-06</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>2.107489751151005e-06</v>
+        <v>2.08253241442831e-06</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>2.11297085878638e-06</v>
+        <v>2.087937997482315e-06</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>2.121458669856648e-06</v>
+        <v>2.09633548387333e-06</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>2.132705922652902e-06</v>
+        <v>2.107485917745482e-06</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>2.146465355466273e-06</v>
+        <v>2.121150343242933e-06</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>2.16248970658786e-06</v>
+        <v>2.137089804509811e-06</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>2.180531714308752e-06</v>
+        <v>2.155065345690239e-06</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>2.200344116920092e-06</v>
+        <v>2.17483801092839e-06</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>2.22167965271297e-06</v>
+        <v>2.196168844368386e-06</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>2.244291059978474e-06</v>
+        <v>2.218818890154345e-06</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>2.267931077007753e-06</v>
+        <v>2.24254919243045e-06</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>2.292352442091874e-06</v>
+        <v>2.267120795340795e-06</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>2.317307893521987e-06</v>
+        <v>2.292294743029565e-06</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>2.342580183631772e-06</v>
+        <v>2.317861822324727e-06</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>2.368410614777033e-06</v>
+        <v>2.344067224298356e-06</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>2.395398379047785e-06</v>
+        <v>2.371510794054374e-06</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>2.424152162062318e-06</v>
+        <v>2.400801784393425e-06</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>2.455280649438921e-06</v>
+        <v>2.432549448116147e-06</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>2.489392526795964e-06</v>
+        <v>2.467363038023263e-06</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>2.527096479751736e-06</v>
+        <v>2.505851806915416e-06</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>2.569001193924513e-06</v>
+        <v>2.548625007593231e-06</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>2.615715354932688e-06</v>
+        <v>2.596291892857453e-06</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>2.667847648394489e-06</v>
+        <v>2.649461715508665e-06</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>2.726006759928326e-06</v>
+        <v>2.708743728347627e-06</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>2.790801375152469e-06</v>
+        <v>2.774747184174963e-06</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>2.862840179685169e-06</v>
+        <v>2.848081335791271e-06</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>2.942731859144867e-06</v>
+        <v>2.929355435997351e-06</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>3.031085099149821e-06</v>
+        <v>3.019178737593807e-06</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>3.128508585318253e-06</v>
+        <v>3.118160493381215e-06</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>3.235611003268653e-06</v>
+        <v>3.226909956160419e-06</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>3.353001038619255e-06</v>
+        <v>3.346036378732004e-06</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>3.481287376988253e-06</v>
+        <v>3.476149013896513e-06</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>3.621078703994193e-06</v>
+        <v>3.617857114454849e-06</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>3.772983705255283e-06</v>
+        <v>3.771769933207569e-06</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>3.937611066389683e-06</v>
+        <v>3.938496722955182e-06</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>4.115691670681592e-06</v>
+        <v>4.118767551008927e-06</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>4.309270526395462e-06</v>
+        <v>4.314611735080237e-06</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>4.52119252223071e-06</v>
+        <v>4.528849419469238e-06</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>4.754313880848458e-06</v>
+        <v>4.764311954148672e-06</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>5.011490824909029e-06</v>
+        <v>5.023830689090467e-06</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>5.295579577073628e-06</v>
+        <v>5.310236974267446e-06</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>5.609436360002784e-06</v>
+        <v>5.626362159651748e-06</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>5.955917396356911e-06</v>
+        <v>5.975037595215398e-06</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>6.337878908797382e-06</v>
+        <v>6.359094630931384e-06</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>6.758177119984642e-06</v>
+        <v>6.781364616771761e-06</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>7.219668252579005e-06</v>
+        <v>7.244678902708453e-06</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>7.725208529242046e-06</v>
+        <v>7.75186883871465e-06</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>8.277654172634111e-06</v>
+        <v>8.305765774762314e-06</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>8.879911934935905e-06</v>
+        <v>8.909246712593067e-06</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>9.535235897588438e-06</v>
+        <v>9.565502454580186e-06</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.02470261536058e-05</v>
+        <v>1.027785571977945e-05</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.101868330128635e-05</v>
+        <v>1.104962968375471e-05</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.185360793892657e-05</v>
+        <v>1.188414752206792e-05</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.27552006648227e-05</v>
+        <v>1.278473241028081e-05</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>1.372686207727344e-05</v>
+        <v>1.375470752395756e-05</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>1.477199277457512e-05</v>
+        <v>1.479739603865997e-05</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>1.589399335502376e-05</v>
+        <v>1.591612112994956e-05</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>1.709198931242968e-05</v>
+        <v>1.710996461409143e-05</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>1.834558291176721e-05</v>
+        <v>1.835863918353241e-05</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>1.962880647641232e-05</v>
+        <v>1.963633155500157e-05</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>2.091569190943376e-05</v>
+        <v>2.091722802823849e-05</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>2.218027111389572e-05</v>
+        <v>2.217551490297816e-05</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>2.339657599286692e-05</v>
+        <v>2.33853784789601e-05</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>2.453863844941264e-05</v>
+        <v>2.452100505592042e-05</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>2.558049038659842e-05</v>
+        <v>2.555658093359548e-05</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>2.649616370749263e-05</v>
+        <v>2.646629241172443e-05</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>2.725969031516069e-05</v>
+        <v>2.722432579004351e-05</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>2.78451021126686e-05</v>
+        <v>2.780486736828956e-05</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>2.822643100308387e-05</v>
+        <v>2.818210344620086e-05</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>2.837770888947233e-05</v>
+        <v>2.833022032351408e-05</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>2.827296767490064e-05</v>
+        <v>2.822340429996667e-05</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>2.788623926243505e-05</v>
+        <v>2.78358416752957e-05</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>2.719155555514199e-05</v>
+        <v>2.714171874923842e-05</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>2.616294845608895e-05</v>
+        <v>2.611522182153313e-05</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>2.478334550373334e-05</v>
+        <v>2.473938480767879e-05</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>2.309531122558558e-05</v>
+        <v>2.305655668512763e-05</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>2.116592384120808e-05</v>
+        <v>2.113346779574769e-05</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>1.906233693021032e-05</v>
+        <v>1.903692343465216e-05</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>1.685170407220894e-05</v>
+        <v>1.683372889696137e-05</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.460117884681289e-05</v>
+        <v>1.459068947778799e-05</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.237791483363712e-05</v>
+        <v>1.237461047225066e-05</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>1.024906561229646e-05</v>
+        <v>1.025229717546791e-05</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>8.281784762400035e-06</v>
+        <v>8.290554882552575e-06</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>6.543225863562791e-06</v>
+        <v>6.556188888623296e-06</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>5.100490512506793e-06</v>
+        <v>5.115952812048627e-06</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>3.991887330342733e-06</v>
+        <v>4.007976866026083e-06</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>3.179168024216481e-06</v>
+        <v>3.194285216339569e-06</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>2.611501159684201e-06</v>
+        <v>2.624392993065531e-06</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>2.238055302300659e-06</v>
+        <v>2.247815326279013e-06</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>2.007999017622373e-06</v>
+        <v>2.014067346056823e-06</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>1.870500871204715e-06</v>
+        <v>1.872664182474608e-06</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>1.774897290347685e-06</v>
+        <v>1.773287633453109e-06</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>1.687201216439571e-06</v>
+        <v>1.682177400994681e-06</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>1.604022591664005e-06</v>
+        <v>1.595952569847506e-06</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>1.525249026662961e-06</v>
+        <v>1.514486581135292e-06</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>1.450768132078399e-06</v>
+        <v>1.437652875981731e-06</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>1.380467518552079e-06</v>
+        <v>1.365324895510307e-06</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>1.314234796725964e-06</v>
+        <v>1.297376080844718e-06</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.251957577242005e-06</v>
+        <v>1.233679873108642e-06</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.193523470741981e-06</v>
+        <v>1.17410971342559e-06</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>1.138820087867846e-06</v>
+        <v>1.118539042919244e-06</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>1.087735039261539e-06</v>
+        <v>1.066841302713274e-06</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>1.040155935564862e-06</v>
+        <v>1.018889933931211e-06</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>9.95970387419756e-07</v>
+        <v>9.745583776967272e-07</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>9.550660054681524e-07</v>
+        <v>9.337200751334829e-07</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>9.17330400351871e-07</v>
+        <v>8.962484673650282e-07</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>8.826511827128747e-07</v>
+        <v>8.620169955150553e-07</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>8.509159631929949e-07</v>
+        <v>8.308991007071267e-07</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>8.220123524341593e-07</v>
+        <v>8.027682240648991e-07</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>7.958279610782844e-07</v>
+        <v>7.774978067120183e-07</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>7.722503997672172e-07</v>
+        <v>7.549612897720629e-07</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>7.511672791428771e-07</v>
+        <v>7.350321143686811e-07</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>7.324662098471743e-07</v>
+        <v>7.175837216255121e-07</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>7.160348025219696e-07</v>
+        <v>7.024895526661487e-07</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>7.017606678091751e-07</v>
+        <v>6.89623048614232e-07</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>6.895314163506952e-07</v>
+        <v>6.788576505933946e-07</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>6.792346587884025e-07</v>
+        <v>6.700667997272421e-07</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>6.707580057642098e-07</v>
+        <v>6.631239371394141e-07</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>6.639890679199972e-07</v>
+        <v>6.579025039535233e-07</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>6.588154558976661e-07</v>
+        <v>6.542759412932001e-07</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>6.551247803391147e-07</v>
+        <v>6.521176902820706e-07</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>6.528046518862304e-07</v>
+        <v>6.513011920437553e-07</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>6.517426811809112e-07</v>
+        <v>6.516998877018807e-07</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>6.518264788650514e-07</v>
+        <v>6.531872183800694e-07</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>6.529436555805454e-07</v>
+        <v>6.556366252019483e-07</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>6.549818219692881e-07</v>
+        <v>6.589215492911411e-07</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>6.578285886731707e-07</v>
+        <v>6.629154317712679e-07</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>6.613715663340928e-07</v>
+        <v>6.674917137659601e-07</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>6.65498365593943e-07</v>
+        <v>6.725238363988342e-07</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>6.700965970946227e-07</v>
+        <v>6.778852407935235e-07</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>6.750538714780232e-07</v>
+        <v>6.834493680736479e-07</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>6.802578442453378e-07</v>
+        <v>6.890897099645442e-07</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>6.856430980505232e-07</v>
+        <v>6.947326924617624e-07</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>6.912799876698639e-07</v>
+        <v>7.004578937933626e-07</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>6.972632799886262e-07</v>
+        <v>7.063724292762177e-07</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>7.036877418920933e-07</v>
+        <v>7.125834142272177e-07</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>7.106481402655325e-07</v>
+        <v>7.19197963963236e-07</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>7.182392419942084e-07</v>
+        <v>7.263231938011449e-07</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>7.265558139634071e-07</v>
+        <v>7.34066219057836e-07</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>7.356926230583944e-07</v>
+        <v>7.425341550501825e-07</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>7.45744436164433e-07</v>
+        <v>7.518341170950538e-07</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>7.568060201668133e-07</v>
+        <v>7.620732205093461e-07</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>7.689721419507986e-07</v>
+        <v>7.7335858060993e-07</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>7.82337568401649e-07</v>
+        <v>7.857973127136728e-07</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>7.969970664046606e-07</v>
+        <v>7.994965321374758e-07</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>8.130454028450789e-07</v>
+        <v>8.14563354198193e-07</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>8.305773446082054e-07</v>
+        <v>8.311048942127305e-07</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>8.496876585792981e-07</v>
+        <v>8.492282674979538e-07</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>8.704711116436102e-07</v>
+        <v>8.690405893707238e-07</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>8.930224706864509e-07</v>
+        <v>8.906489751479545e-07</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>9.174365025930751e-07</v>
+        <v>9.141605401465085e-07</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>9.438079742487294e-07</v>
+        <v>9.396823996832395e-07</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>9.722316525387348e-07</v>
+        <v>9.673216690750738e-07</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>1.002802304348339e-06</v>
+        <v>9.97185463638867e-07</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>1.035614696562786e-06</v>
+        <v>1.029380898691469e-06</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>1.070763596067405e-06</v>
+        <v>1.064015089549816e-06</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>1.108343769747406e-06</v>
+        <v>1.101195151530724e-06</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>1.148449984488128e-06</v>
+        <v>1.141028199951141e-06</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>1.191177007174811e-06</v>
+        <v>1.18362135012791e-06</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>1.236619604692686e-06</v>
+        <v>1.22908171737787e-06</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.284872543927105e-06</v>
+        <v>1.277516417017981e-06</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.336030591763302e-06</v>
+        <v>1.329032564365083e-06</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.390188515086499e-06</v>
+        <v>1.383737274736004e-06</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.447441080782066e-06</v>
+        <v>1.441737663447721e-06</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.507883055735227e-06</v>
+        <v>1.503140845817065e-06</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>1.571609206831195e-06</v>
+        <v>1.568053937160855e-06</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.638714300955359e-06</v>
+        <v>1.636584052796087e-06</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.709293104992868e-06</v>
+        <v>1.708838308039516e-06</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.783440385829123e-06</v>
+        <v>1.784923818208151e-06</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.861250903376354e-06</v>
+        <v>1.864947691132968e-06</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.942619287649083e-06</v>
+        <v>1.948802185222298e-06</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>2.026716667301997e-06</v>
+        <v>2.035602844104644e-06</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>2.112550729793152e-06</v>
+        <v>2.124289749135577e-06</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>2.199129162580297e-06</v>
+        <v>2.213802981670349e-06</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>2.285459653121492e-06</v>
+        <v>2.30308262306454e-06</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>2.370549888874563e-06</v>
+        <v>2.39106875467348e-06</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>2.453407557297339e-06</v>
+        <v>2.476701457852507e-06</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>2.533040345847874e-06</v>
+        <v>2.558920813957189e-06</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>2.608455941983994e-06</v>
+        <v>2.636666904342861e-06</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>2.678662033163544e-06</v>
+        <v>2.708879810364876e-06</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>2.742666306844552e-06</v>
+        <v>2.774499613378776e-06</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>2.799476450484853e-06</v>
+        <v>2.832466394739906e-06</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>2.848100151542316e-06</v>
+        <v>2.881720235803641e-06</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>2.887545097474929e-06</v>
+        <v>2.921201217925483e-06</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>2.916818975740526e-06</v>
+        <v>2.949849422460776e-06</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>2.934929473797063e-06</v>
+        <v>2.966604930764987e-06</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>2.940884279102413e-06</v>
+        <v>2.970407824193496e-06</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>2.933784153583128e-06</v>
+        <v>2.960298868556732e-06</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>2.914363932212345e-06</v>
+        <v>2.937086508347955e-06</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>2.884752526917304e-06</v>
+        <v>2.903087248008634e-06</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>2.847123544910666e-06</v>
+        <v>2.860665941656792e-06</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>2.803650593404988e-06</v>
+        <v>2.812187443410331e-06</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>2.756507279612922e-06</v>
+        <v>2.760016607387264e-06</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>2.707867210747138e-06</v>
+        <v>2.706518287705619e-06</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>2.659903994020172e-06</v>
+        <v>2.654057338483281e-06</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>2.614791236644729e-06</v>
+        <v>2.604998613838318e-06</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>2.574702545833351e-06</v>
+        <v>2.561706967888618e-06</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>2.541811528798704e-06</v>
+        <v>2.526547254752211e-06</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>2.518291792753431e-06</v>
+        <v>2.501884328547091e-06</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>2.50631694491011e-06</v>
+        <v>2.490083043391192e-06</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>2.508060592481393e-06</v>
+        <v>2.493508253402522e-06</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>2.525685889467746e-06</v>
+        <v>2.514513742214082e-06</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>2.559561578947408e-06</v>
+        <v>2.553552920744827e-06</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>2.606242412514115e-06</v>
+        <v>2.607039988349082e-06</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>2.661795241431996e-06</v>
+        <v>2.670872433040369e-06</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>2.722286916965334e-06</v>
+        <v>2.740947742832389e-06</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>2.783784290378207e-06</v>
+        <v>2.813163405738608e-06</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>2.842354212934911e-06</v>
+        <v>2.883416909772743e-06</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>2.894063535899569e-06</v>
+        <v>2.947605742948312e-06</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>2.934979110536363e-06</v>
+        <v>3.001627393278899e-06</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>2.961302722076464e-06</v>
+        <v>3.041498930492925e-06</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>2.973484328937861e-06</v>
+        <v>3.067002257192273e-06</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>2.976976136576862e-06</v>
+        <v>3.0823523871686e-06</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>2.977517362559252e-06</v>
+        <v>3.092018691222449e-06</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>2.980847224450808e-06</v>
+        <v>3.10047054015432e-06</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>2.992704939817296e-06</v>
+        <v>3.112177304764718e-06</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>3.018829726224518e-06</v>
+        <v>3.131608355854181e-06</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>3.06436561746545e-06</v>
+        <v>3.16283586329571e-06</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>3.12439850416094e-06</v>
+        <v>3.203219609999563e-06</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>3.185636220940554e-06</v>
+        <v>3.244528212311091e-06</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>3.234530958550829e-06</v>
+        <v>3.278359680466924e-06</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>3.257534907738349e-06</v>
+        <v>3.296312024703721e-06</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>3.244814847708164e-06</v>
+        <v>3.292110627682652e-06</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>3.2031581700943e-06</v>
+        <v>3.268999620360954e-06</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>3.143999013911238e-06</v>
+        <v>3.232884360464684e-06</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>3.078771734776265e-06</v>
+        <v>3.18967032976993e-06</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>3.017067663636545e-06</v>
+        <v>3.144350832938738e-06</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>2.960261826897799e-06</v>
+        <v>3.097852639286989e-06</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>2.907440501867161e-06</v>
+        <v>3.049969736469347e-06</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>2.857689868932738e-06</v>
+        <v>3.000496064171889e-06</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>2.810096108482505e-06</v>
+        <v>2.949225562080555e-06</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>2.763745400904573e-06</v>
+        <v>2.89595216988142e-06</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>2.717723926587047e-06</v>
+        <v>2.840469827260562e-06</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>2.671117865917909e-06</v>
+        <v>2.782572473903915e-06</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>2.62301339928531e-06</v>
+        <v>2.722054049497612e-06</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>2.572496707077229e-06</v>
+        <v>2.658708493727574e-06</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>2.518653969681771e-06</v>
+        <v>2.592329746279885e-06</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>2.460571367487001e-06</v>
+        <v>2.522711746840575e-06</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>2.397335080881043e-06</v>
+        <v>2.449648435095742e-06</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>2.328083481857775e-06</v>
+        <v>2.372964253893735e-06</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>2.253215270291894e-06</v>
+        <v>2.293220239360984e-06</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>2.174423690492255e-06</v>
+        <v>2.211734018621032e-06</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>2.093461023223947e-06</v>
+        <v>2.129857722403668e-06</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>2.012079549252068e-06</v>
+        <v>2.048943481438683e-06</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>1.932031549341493e-06</v>
+        <v>1.97034342645565e-06</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.855069304257323e-06</v>
+        <v>1.89540968818436e-06</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.782945094764643e-06</v>
+        <v>1.825494397354592e-06</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.717411201628348e-06</v>
+        <v>1.761949684695938e-06</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.660219905613528e-06</v>
+        <v>1.706127680938184e-06</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.613123487485246e-06</v>
+        <v>1.659380516811084e-06</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.577874228008442e-06</v>
+        <v>1.623060323044273e-06</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.556224407948198e-06</v>
+        <v>1.598519230367532e-06</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.549748087136804e-06</v>
+        <v>1.587094448554333e-06</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>1.559009708159128e-06</v>
+        <v>1.590038660524375e-06</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>1.584218602612055e-06</v>
+        <v>1.608574818708203e-06</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.625583709625219e-06</v>
+        <v>1.643925842678392e-06</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.683313968328196e-06</v>
+        <v>1.697314652007477e-06</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.757618317850502e-06</v>
+        <v>1.769964166267926e-06</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.848705697321862e-06</v>
+        <v>1.863097305032412e-06</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.956785045871809e-06</v>
+        <v>1.977936987873425e-06</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>2.082065413416537e-06</v>
+        <v>2.115706242503874e-06</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>2.244755080998749e-06</v>
+        <v>2.297149630872954e-06</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>2.540852700990481e-06</v>
+        <v>2.616991775429338e-06</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>3.083040219829493e-06</v>
+        <v>3.186204412089892e-06</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>3.902086081921437e-06</v>
+        <v>4.03336657364899e-06</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>4.898297873590452e-06</v>
+        <v>5.05583322748632e-06</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>5.960342085210759e-06</v>
+        <v>6.139250143610905e-06</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>6.976885207153863e-06</v>
+        <v>7.169263092028966e-06</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>7.836593729791442e-06</v>
+        <v>8.031517842746939e-06</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>8.42950232927161e-06</v>
+        <v>8.61309855011988e-06</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>8.732880742925664e-06</v>
+        <v>8.89280026685378e-06</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>8.862256791458234e-06</v>
+        <v>8.994769844099573e-06</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>8.945414461344688e-06</v>
+        <v>9.056039135413391e-06</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>9.110137739059859e-06</v>
+        <v>9.213639994350902e-06</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>9.470962701781097e-06</v>
+        <v>9.590150548481972e-06</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>1.001380577765639e-05</v>
+        <v>1.01678223937175e-05</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>1.065225645892242e-05</v>
+        <v>1.084999703611388e-05</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>1.129909822132735e-05</v>
+        <v>1.153913660210596e-05</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>1.186711454062119e-05</v>
+        <v>1.213770321813049e-05</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>1.227451006177478e-05</v>
+        <v>1.255446056183349e-05</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>1.250047216692883e-05</v>
+        <v>1.276905846576335e-05</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>1.256258519080051e-05</v>
+        <v>1.28057792675747e-05</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>1.247903219581582e-05</v>
+        <v>1.268960126425563e-05</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>1.226799624440044e-05</v>
+        <v>1.244550275279381e-05</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>1.194766578647846e-05</v>
+        <v>1.209839241260416e-05</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>1.153647635854023e-05</v>
+        <v>1.166998605575741e-05</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>1.105320812706244e-05</v>
+        <v>1.117754616506606e-05</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>1.05166668342884e-05</v>
+        <v>1.063800473177548e-05</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>9.945658222461618e-06</v>
+        <v>1.006829374713122e-05</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>9.35898803382405e-06</v>
+        <v>9.485345202377262e-06</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>8.775462010619703e-06</v>
+        <v>8.906091088759649e-06</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>8.213652867504723e-06</v>
+        <v>8.347256526355623e-06</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>7.683997589433224e-06</v>
+        <v>7.818344108819495e-06</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>7.186869643192928e-06</v>
+        <v>7.319922501500647e-06</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>6.722018436527823e-06</v>
+        <v>6.85200635884849e-06</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>6.289193377183259e-06</v>
+        <v>6.414610335313792e-06</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>5.888143872904472e-06</v>
+        <v>6.007749085347221e-06</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>5.518619331435626e-06</v>
+        <v>5.63143726339835e-06</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>5.180369160521984e-06</v>
+        <v>5.285689523917867e-06</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>4.873142767908697e-06</v>
+        <v>4.970520521356353e-06</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>4.596689561340096e-06</v>
+        <v>4.68594491016355e-06</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>4.350758948561571e-06</v>
+        <v>4.431977344790279e-06</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>4.135100337317563e-06</v>
+        <v>4.208632479686391e-06</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>3.949463135353196e-06</v>
+        <v>4.015924969302438e-06</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>3.793482165481772e-06</v>
+        <v>3.853748645888196e-06</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>3.66368401930618e-06</v>
+        <v>3.7187199183062e-06</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>3.55319923614733e-06</v>
+        <v>3.603874283826575e-06</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>3.454986064617813e-06</v>
+        <v>3.502065570609707e-06</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>3.362002753329834e-06</v>
+        <v>3.406147606815578e-06</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>3.267207550895863e-06</v>
+        <v>3.308974220604446e-06</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>3.163558705928377e-06</v>
+        <v>3.203399240136576e-06</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>3.044014467039572e-06</v>
+        <v>3.082276493571945e-06</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>2.901538703101098e-06</v>
+        <v>2.938465453837111e-06</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>2.733563724180873e-06</v>
+        <v>2.769313519678123e-06</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>2.550019035473288e-06</v>
+        <v>2.584719778945975e-06</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>2.363002185506067e-06</v>
+        <v>2.39676081657086e-06</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>2.184610722806941e-06</v>
+        <v>2.217513217482982e-06</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>2.026942195903163e-06</v>
+        <v>2.059053566612057e-06</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>1.902094153322574e-06</v>
+        <v>1.933458448888396e-06</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>1.82216414359252e-06</v>
+        <v>1.852804449241817e-06</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>1.799249715240712e-06</v>
+        <v>1.829168152602496e-06</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>1.845448416794655e-06</v>
+        <v>1.874626143900409e-06</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>1.972857796782004e-06</v>
+        <v>2.001255008065677e-06</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>2.19357540373033e-06</v>
+        <v>2.221131330028343e-06</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>2.51969878616687e-06</v>
+        <v>2.546331694718111e-06</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>2.963325492619785e-06</v>
+        <v>2.98893268706561e-06</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>3.543246529100351e-06</v>
+        <v>3.56782573180407e-06</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>4.362008695859711e-06</v>
+        <v>4.387176915039088e-06</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>5.579158241646868e-06</v>
+        <v>5.609185426295261e-06</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>7.355333880613471e-06</v>
+        <v>7.397162731783503e-06</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>9.851174326916764e-06</v>
+        <v>9.91442029772035e-06</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>1.322731829470958e-05</v>
+        <v>1.33242695903179e-05</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>1.747720429559238e-05</v>
+        <v>1.761999440066862e-05</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>2.106579894124501e-05</v>
+        <v>2.124055908925403e-05</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>2.163891857358695e-05</v>
+        <v>2.179192534182892e-05</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>1.945070683536447e-05</v>
+        <v>1.952910944113514e-05</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>2.033921798101042e-05</v>
+        <v>2.038392036373672e-05</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>2.320557731052789e-05</v>
+        <v>2.325204075292631e-05</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>2.608109512018116e-05</v>
+        <v>2.614651901237879e-05</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>2.717405652960242e-05</v>
+        <v>2.725823775006204e-05</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>2.655832302078938e-05</v>
+        <v>2.665271508217799e-05</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>2.542614466837632e-05</v>
+        <v>2.551928855685055e-05</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>2.497352579354589e-05</v>
+        <v>2.505121252011841e-05</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>2.5540366625434e-05</v>
+        <v>2.559231249314183e-05</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>2.60701565067971e-05</v>
+        <v>2.61006474578987e-05</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>2.605938966169552e-05</v>
+        <v>2.607876585894488e-05</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>2.558682202278183e-05</v>
+        <v>2.560339228532681e-05</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>2.474944520062511e-05</v>
+        <v>2.476923377467675e-05</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>2.364425080579561e-05</v>
+        <v>2.367099736462812e-05</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>2.236823044886455e-05</v>
+        <v>2.24033900928153e-05</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>2.101837574039956e-05</v>
+        <v>2.106111899686913e-05</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>1.96880524310655e-05</v>
+        <v>1.973539185701757e-05</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>1.841862155078754e-05</v>
+        <v>1.846722755791208e-05</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>1.721253068208385e-05</v>
+        <v>1.72600902599279e-05</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>1.607128902046586e-05</v>
+        <v>1.611653850166563e-05</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>1.499640576144475e-05</v>
+        <v>1.503913082172564e-05</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>1.398939010052881e-05</v>
+        <v>1.403042575870538e-05</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>1.30517512332301e-05</v>
+        <v>1.30929818512061e-05</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>1.218499835505717e-05</v>
+        <v>1.222935763782552e-05</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.139065263694995e-05</v>
+        <v>1.144212031563197e-05</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>1.067363084616672e-05</v>
+        <v>1.073629216389839e-05</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>1.004689733853219e-05</v>
+        <v>1.01227140250089e-05</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>9.524582406611205e-06</v>
+        <v>9.613069736296344e-06</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>9.120816342968234e-06</v>
+        <v>9.219043135093204e-06</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>8.848205179733112e-06</v>
+        <v>8.950904321418704e-06</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>8.693735014351564e-06</v>
+        <v>8.795161145218749e-06</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>8.623124353161019e-06</v>
+        <v>8.718595964372057e-06</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>8.601447380926526e-06</v>
+        <v>8.687393534518297e-06</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>8.593778282413362e-06</v>
+        <v>8.667738611297387e-06</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>8.565191242386695e-06</v>
+        <v>8.625815950349111e-06</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>8.480760445611691e-06</v>
+        <v>8.527810307313276e-06</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>8.309553906680354e-06</v>
+        <v>8.343882831658285e-06</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>8.061327924488082e-06</v>
+        <v>8.084705322933977e-06</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>7.7695981070188e-06</v>
+        <v>7.784605162957733e-06</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>7.468177800610191e-06</v>
+        <v>7.478206172054279e-06</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>7.190880351599111e-06</v>
+        <v>7.200132170547485e-06</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>6.97135407137637e-06</v>
+        <v>6.984833044605529e-06</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>6.817900437329497e-06</v>
+        <v>6.840045064420832e-06</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>6.686397881885513e-06</v>
+        <v>6.718254637770177e-06</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>6.528589695150209e-06</v>
+        <v>6.567636495915723e-06</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>6.328957380261306e-06</v>
+        <v>6.371513429367394e-06</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>6.095934347251698e-06</v>
+        <v>6.138923225413472e-06</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>5.838502060748337e-06</v>
+        <v>5.879492068006552e-06</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>5.56564198537843e-06</v>
+        <v>5.602846141099484e-06</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>5.286335585768433e-06</v>
+        <v>5.318611628644363e-06</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>5.009564326545786e-06</v>
+        <v>5.036414714594277e-06</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>4.744258700749605e-06</v>
+        <v>4.765827036396012e-06</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>4.495902565574233e-06</v>
+        <v>4.512731864109977e-06</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>4.264401357990368e-06</v>
+        <v>4.277042802259858e-06</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>4.049151949909465e-06</v>
+        <v>4.058129221843457e-06</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>3.849551213243623e-06</v>
+        <v>3.85536049385923e-06</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>3.664996019904874e-06</v>
+        <v>3.668105989305566e-06</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>3.494883241804762e-06</v>
+        <v>3.49573507918036e-06</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>3.338609750855337e-06</v>
+        <v>3.337617134482017e-06</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>3.195572418968597e-06</v>
+        <v>3.193121526208895e-06</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>3.065168118056163e-06</v>
+        <v>3.061617625358962e-06</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>2.946793720030146e-06</v>
+        <v>2.942474802930687e-06</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>2.839846096802208e-06</v>
+        <v>2.835062429922087e-06</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>2.743722120284339e-06</v>
+        <v>2.738749877331507e-06</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>2.657818662388487e-06</v>
+        <v>2.652906516157247e-06</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>2.581532595026374e-06</v>
+        <v>2.576901717397387e-06</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>2.514260790109958e-06</v>
+        <v>2.510104852050237e-06</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>2.455400119551164e-06</v>
+        <v>2.451885291114077e-06</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>2.404347455261764e-06</v>
+        <v>2.401612405587035e-06</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>2.36049966915369e-06</v>
+        <v>2.358655566467396e-06</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>2.323253633138848e-06</v>
+        <v>2.32238414475342e-06</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>2.292006219129048e-06</v>
+        <v>2.292167511443275e-06</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>2.266154299036224e-06</v>
+        <v>2.267375037535245e-06</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>2.245094744772206e-06</v>
+        <v>2.247376094027519e-06</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>2.228224428248896e-06</v>
+        <v>2.23154005191835e-06</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>2.214940221378168e-06</v>
+        <v>2.219236282205969e-06</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>2.204638996071909e-06</v>
+        <v>2.209834155888615e-06</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>2.196717624241976e-06</v>
+        <v>2.202703043964502e-06</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>2.190645850715877e-06</v>
+        <v>2.197289369703114e-06</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>2.186299255815517e-06</v>
+        <v>2.193468667056939e-06</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>2.183693867530322e-06</v>
+        <v>2.19126497250071e-06</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>2.182845849566764e-06</v>
+        <v>2.190702466009756e-06</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>2.183771365631311e-06</v>
+        <v>2.191805327559403e-06</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>2.186486579430437e-06</v>
+        <v>2.19459773712498e-06</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>2.191007654670609e-06</v>
+        <v>2.199103874681812e-06</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>2.197350755058305e-06</v>
+        <v>2.205347920205232e-06</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>2.205532044299994e-06</v>
+        <v>2.213354053670568e-06</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>2.215567686102137e-06</v>
+        <v>2.223146455053135e-06</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>2.227473844171224e-06</v>
+        <v>2.234749304328281e-06</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>2.241266682213704e-06</v>
+        <v>2.24818678147131e-06</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>2.256962363936074e-06</v>
+        <v>2.263483066457578e-06</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>2.274577053044793e-06</v>
+        <v>2.280662339262398e-06</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>2.294126913246313e-06</v>
+        <v>2.299748779861082e-06</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>2.315628108247143e-06</v>
+        <v>2.320766568228992e-06</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>2.339096801753736e-06</v>
+        <v>2.343739884341439e-06</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>2.364549157472539e-06</v>
+        <v>2.368692908173727e-06</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>2.392001339110069e-06</v>
+        <v>2.39564981970123e-06</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>2.421469510372778e-06</v>
+        <v>2.424634798899254e-06</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>2.452969834967105e-06</v>
+        <v>2.455672025743097e-06</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>2.486518476599578e-06</v>
+        <v>2.488785680208144e-06</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>2.52213159897661e-06</v>
+        <v>2.523999942269663e-06</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>2.559825365804735e-06</v>
+        <v>2.561338991903045e-06</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>2.599615940790393e-06</v>
+        <v>2.600827009083586e-06</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>2.641519487640017e-06</v>
+        <v>2.642488173786578e-06</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>2.685552170060153e-06</v>
+        <v>2.686346665987421e-06</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>2.731730151757238e-06</v>
+        <v>2.732426665661409e-06</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>2.780069596437696e-06</v>
+        <v>2.780752352783824e-06</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>2.830586667808086e-06</v>
+        <v>2.83134790733008e-06</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>2.883297529574837e-06</v>
+        <v>2.884237509275464e-06</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>2.938218345444371e-06</v>
+        <v>2.939445338595253e-06</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>2.995365279123257e-06</v>
+        <v>2.996995575264873e-06</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>3.054754494317863e-06</v>
+        <v>3.056912399259549e-06</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>3.116402154734768e-06</v>
+        <v>3.119219990554717e-06</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>3.180568600380826e-06</v>
+        <v>3.184180590287876e-06</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>3.24866791786091e-06</v>
+        <v>3.253181291826436e-06</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>3.322454631204578e-06</v>
+        <v>3.327941100065829e-06</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>3.403683313785359e-06</v>
+        <v>3.410179068009698e-06</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>3.494108538976495e-06</v>
+        <v>3.5016142486614e-06</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>3.595484880151546e-06</v>
+        <v>3.603965695024606e-06</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>3.70956691068383e-06</v>
+        <v>3.718952460102747e-06</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>3.838109203946618e-06</v>
+        <v>3.848293596899207e-06</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>3.982866333313537e-06</v>
+        <v>3.993708158417728e-06</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>4.145592872157877e-06</v>
+        <v>4.156915197661708e-06</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>4.328043393852856e-06</v>
+        <v>4.339633767634481e-06</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>4.531863292258466e-06</v>
+        <v>4.543475071739745e-06</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>4.756747750458525e-06</v>
+        <v>4.768123858085567e-06</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>5.000710268248656e-06</v>
+        <v>5.011603676044136e-06</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>5.261709241153002e-06</v>
+        <v>5.271883641940249e-06</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>5.5377030646948e-06</v>
+        <v>5.546932872097806e-06</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>5.826650134398252e-06</v>
+        <v>5.83472048284166e-06</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>6.126508845786819e-06</v>
+        <v>6.133215590495933e-06</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>6.435237594383923e-06</v>
+        <v>6.440387311384707e-06</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>6.750794775713824e-06</v>
+        <v>6.754204761832894e-06</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>7.071138785299952e-06</v>
+        <v>7.072637058164584e-06</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>7.394228018665716e-06</v>
+        <v>7.393653316703848e-06</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>7.718020871335406e-06</v>
+        <v>7.715222653775628e-06</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>8.04047573883243e-06</v>
+        <v>8.03531418570399e-06</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>8.359551016680216e-06</v>
+        <v>8.351897028813022e-06</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>8.673205100403031e-06</v>
+        <v>8.662940299427649e-06</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>8.981608427820686e-06</v>
+        <v>8.968636743395418e-06</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>9.295136976497958e-06</v>
+        <v>9.279438105461342e-06</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>9.627107947253637e-06</v>
+        <v>9.60875276048254e-06</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>9.990838815446069e-06</v>
+        <v>9.969989359293795e-06</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>1.039964705643458e-05</v>
+        <v>1.037655655273085e-05</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>1.086685014557756e-05</v>
+        <v>1.084186299162854e-05</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>1.140576555823315e-05</v>
+        <v>1.137931732682144e-05</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>1.202971076976102e-05</v>
+        <v>1.200232820914564e-05</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>1.275199520582289e-05</v>
+        <v>1.272429590132481e-05</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>1.358343469827125e-05</v>
+        <v>1.355602223996073e-05</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>1.452883385182493e-05</v>
+        <v>1.450204511860603e-05</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>1.559210967403583e-05</v>
+        <v>1.556597751848181e-05</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>1.677717917245543e-05</v>
+        <v>1.675143242080872e-05</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>1.808795935463849e-05</v>
+        <v>1.806202280681069e-05</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>1.952836722813658e-05</v>
+        <v>1.950136165770849e-05</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>2.110231980050086e-05</v>
+        <v>2.107306195472246e-05</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>2.281373407928676e-05</v>
+        <v>2.278073667907719e-05</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>2.466492148499606e-05</v>
+        <v>2.462644970104705e-05</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>2.663860120044363e-05</v>
+        <v>2.65933618050427e-05</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>2.870439753949315e-05</v>
+        <v>2.865199951510502e-05</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>3.083169519854682e-05</v>
+        <v>3.077265816629477e-05</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>3.298987887401265e-05</v>
+        <v>3.292563309367844e-05</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>3.514833326229285e-05</v>
+        <v>3.508121963231683e-05</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>3.727644305978968e-05</v>
+        <v>3.720971311727075e-05</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>3.934359296291114e-05</v>
+        <v>3.928140888360671e-05</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>4.131916766805944e-05</v>
+        <v>4.126660226638548e-05</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>4.317077532482884e-05</v>
+        <v>4.313368074059902e-05</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>4.484073282223711e-05</v>
+        <v>4.482387111993422e-05</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>4.625252770692663e-05</v>
+        <v>4.625817910694397e-05</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>4.732919873220411e-05</v>
+        <v>4.735712843833535e-05</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>4.799378465137228e-05</v>
+        <v>4.804124285081138e-05</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>4.816932421773532e-05</v>
+        <v>4.823104608107661e-05</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>4.777889544135557e-05</v>
+        <v>4.784710189845834e-05</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>4.680927058258723e-05</v>
+        <v>4.687492716611638e-05</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>4.544044061764971e-05</v>
+        <v>4.549707620858704e-05</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>4.388889744852391e-05</v>
+        <v>4.393332567495077e-05</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>4.23711329609741e-05</v>
+        <v>4.240345219783858e-05</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>4.105964563427596e-05</v>
+        <v>4.108260733994112e-05</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>3.995473193775422e-05</v>
+        <v>3.997126815357872e-05</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>3.901456061898741e-05</v>
+        <v>3.902717909363484e-05</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>3.819730042555031e-05</v>
+        <v>3.82080846149892e-05</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>3.746112010502024e-05</v>
+        <v>3.747172917252409e-05</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>3.676418840497369e-05</v>
+        <v>3.677585722112092e-05</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>3.606467407298769e-05</v>
+        <v>3.607821321566165e-05</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>3.532074585663748e-05</v>
+        <v>3.533654161102648e-05</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>3.449057250350092e-05</v>
+        <v>3.450858686209821e-05</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>3.353961462130314e-05</v>
+        <v>3.355943723914998e-05</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>3.247532012510184e-05</v>
+        <v>3.249646748361031e-05</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>3.1320134567845e-05</v>
+        <v>3.134215683448895e-05</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>3.009652222010929e-05</v>
+        <v>3.011900338178935e-05</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>2.882694735247447e-05</v>
+        <v>2.884950521551806e-05</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>2.753387423552047e-05</v>
+        <v>2.755616042568179e-05</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>2.623976713982369e-05</v>
+        <v>2.626146710228375e-05</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>2.496709033596407e-05</v>
+        <v>2.498792333533064e-05</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>2.373819713244798e-05</v>
+        <v>2.375791639348607e-05</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>2.25646820661759e-05</v>
+        <v>2.258308841888873e-05</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>2.143854467516681e-05</v>
+        <v>2.145551140664301e-05</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>2.034970458618775e-05</v>
+        <v>2.036518007850078e-05</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>1.92880814260088e-05</v>
+        <v>1.930208915621695e-05</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>1.824359482139995e-05</v>
+        <v>1.825623336154633e-05</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>1.720616439912841e-05</v>
+        <v>1.721760741624095e-05</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>1.616570978596415e-05</v>
+        <v>1.617620604205565e-05</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>1.51121506086772e-05</v>
+        <v>1.512202396074525e-05</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>1.403595332023872e-05</v>
+        <v>1.404559800240255e-05</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>1.294054998317283e-05</v>
+        <v>1.295031874302865e-05</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>1.184255790906218e-05</v>
+        <v>1.185264824905042e-05</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>1.075918516747791e-05</v>
+        <v>1.076963424798886e-05</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>9.707639827995064e-06</v>
+        <v>9.718324467368901e-06</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>8.705129960184875e-06</v>
+        <v>8.715766634711641e-06</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>7.768863633621444e-06</v>
+        <v>7.779008477541056e-06</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>6.916048917878633e-06</v>
+        <v>6.925097723380873e-06</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>6.16389388252803e-06</v>
+        <v>6.171082099752555e-06</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>5.528419977250333e-06</v>
+        <v>5.532916080272235e-06</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>5.020523390968034e-06</v>
+        <v>5.02183214511592e-06</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>4.649716865427999e-06</v>
+        <v>4.647788180093245e-06</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>4.42563606564921e-06</v>
+        <v>4.420866382357754e-06</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>4.365852385568282e-06</v>
+        <v>4.359174164947698e-06</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>4.49344648464381e-06</v>
+        <v>4.486356713860812e-06</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>4.787045022195974e-06</v>
+        <v>4.780888834189959e-06</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>5.207316837778334e-06</v>
+        <v>5.203000266733065e-06</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>5.714887348844554e-06</v>
+        <v>5.712876635629432e-06</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>6.270108367151509e-06</v>
+        <v>6.270437310233908e-06</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>6.827010398588257e-06</v>
+        <v>6.829450187358545e-06</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>7.333286839079313e-06</v>
+        <v>7.337516311781595e-06</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>7.736354318024443e-06</v>
+        <v>7.741967397590204e-06</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>7.983629464824982e-06</v>
+        <v>7.990135158873088e-06</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>8.022569416052686e-06</v>
+        <v>8.029391770585913e-06</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>7.842731708195708e-06</v>
+        <v>7.8491616829253e-06</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>7.55538830739547e-06</v>
+        <v>7.560444644819909e-06</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>7.293678201080162e-06</v>
+        <v>7.296082430444627e-06</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>7.183627333167175e-06</v>
+        <v>7.181855544597584e-06</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>7.217806514846391e-06</v>
+        <v>7.211060747183153e-06</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>7.270198590615003e-06</v>
+        <v>7.259270004718722e-06</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>7.21065980367793e-06</v>
+        <v>7.197958718968339e-06</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>6.938470882209148e-06</v>
+        <v>6.927585395752505e-06</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>6.477471785250124e-06</v>
+        <v>6.471299325563846e-06</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>5.88445642943075e-06</v>
+        <v>5.884709431845626e-06</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>5.216218941149723e-06</v>
+        <v>5.223424844663304e-06</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>4.529553446806018e-06</v>
+        <v>4.543054694082607e-06</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>3.881250261661986e-06</v>
+        <v>3.899204398088158e-06</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>3.314434719720739e-06</v>
+        <v>3.334169561011084e-06</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>2.827863722288036e-06</v>
+        <v>2.847030537918867e-06</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>2.411305015074661e-06</v>
+        <v>2.428112166136051e-06</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>2.054526343792741e-06</v>
+        <v>2.067739282988522e-06</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>1.747295454154186e-06</v>
+        <v>1.756236725801955e-06</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>1.479380091870102e-06</v>
+        <v>1.483929331901209e-06</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>1.240548241771414e-06</v>
+        <v>1.241142177653918e-06</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>1.031714817247657e-06</v>
+        <v>1.029343112913992e-06</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>8.786611496747789e-07</v>
+        <v>8.746434785695588e-07</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>7.759825720160112e-07</v>
+        <v>7.714405800209328e-07</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>7.120210520095736e-07</v>
+        <v>7.077975244300062e-07</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>6.751185573935373e-07</v>
+        <v>6.717774189585227e-07</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>6.536170559061679e-07</v>
+        <v>6.51443370768421e-07</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>6.374644958049647e-07</v>
+        <v>6.36501138431054e-07</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>6.242231088971324e-07</v>
+        <v>6.244446282909087e-07</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>6.137094500719674e-07</v>
+        <v>6.15073544890965e-07</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>6.057404202793207e-07</v>
+        <v>6.081879467366916e-07</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>6.001329204690724e-07</v>
+        <v>6.035878923335848e-07</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>5.967038515910942e-07</v>
+        <v>6.010734401871322e-07</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>5.9527011459525e-07</v>
+        <v>6.004446488028155e-07</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>5.956486104314132e-07</v>
+        <v>6.015015766861242e-07</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>5.976562400494513e-07</v>
+        <v>6.040442823425418e-07</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>6.011099043992372e-07</v>
+        <v>6.078728242775592e-07</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>6.058265044306352e-07</v>
+        <v>6.127872609966564e-07</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>6.116229927308425e-07</v>
+        <v>6.185877653308235e-07</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>6.183262445926184e-07</v>
+        <v>6.250964790717078e-07</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>6.257847910728957e-07</v>
+        <v>6.321834900704065e-07</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>6.338500199564426e-07</v>
+        <v>6.397252109994842e-07</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>6.423733190280081e-07</v>
+        <v>6.475980545314863e-07</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>6.512060760723395e-07</v>
+        <v>6.556784333389572e-07</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>6.601996788742077e-07</v>
+        <v>6.638427600944631e-07</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>6.692055152183605e-07</v>
+        <v>6.719674474705486e-07</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>6.780749728895449e-07</v>
+        <v>6.799289081397583e-07</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>6.866594396725325e-07</v>
+        <v>6.876035547746581e-07</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>6.948103033520634e-07</v>
+        <v>6.948678000477864e-07</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>7.023789517129076e-07</v>
+        <v>7.015980566317079e-07</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>7.092167725398126e-07</v>
+        <v>7.076707371989673e-07</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>7.151751536175289e-07</v>
+        <v>7.129622544221121e-07</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>7.201054827308224e-07</v>
+        <v>7.173490209737034e-07</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>7.238591476644427e-07</v>
+        <v>7.207074495262878e-07</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>7.262875362031434e-07</v>
+        <v>7.229139527524156e-07</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>7.272420361316846e-07</v>
+        <v>7.238449433246428e-07</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>7.265740352348182e-07</v>
+        <v>7.233768339155177e-07</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>7.242920877086507e-07</v>
+        <v>7.215314478122632e-07</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>7.211296650632851e-07</v>
+        <v>7.190013029582145e-07</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>7.180291048772595e-07</v>
+        <v>7.166721605166415e-07</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>7.159327641229466e-07</v>
+        <v>7.154297995940209e-07</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>7.157829997727279e-07</v>
+        <v>7.161599992968373e-07</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>7.18522168798982e-07</v>
+        <v>7.197485387315724e-07</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>7.250926281740792e-07</v>
+        <v>7.270811970046995e-07</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>7.364367348704096e-07</v>
+        <v>7.390437532227134e-07</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>7.53496845860329e-07</v>
+        <v>7.565219864920721e-07</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>7.772153181162462e-07</v>
+        <v>7.804016759192889e-07</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>8.085345086105272e-07</v>
+        <v>8.115686006108325e-07</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>8.483967743155103e-07</v>
+        <v>8.509085396731451e-07</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>8.977444722036453e-07</v>
+        <v>8.99307272212779e-07</v>
       </c>
     </row>
   </sheetData>
